--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_28_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_28_7.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_0</t>
+          <t>model_28_7_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9965439507396311</v>
+        <v>0.968206319784442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7311207391428638</v>
+        <v>0.7781888564845393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9968653102918503</v>
+        <v>0.89318578874685</v>
       </c>
       <c r="E2" t="n">
-        <v>0.948859602409345</v>
+        <v>0.857856608511516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9938666055174639</v>
+        <v>0.9053759861004218</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0231106173177306</v>
+        <v>0.2126044859978725</v>
       </c>
       <c r="H2" t="n">
-        <v>1.797996855426825</v>
+        <v>1.483252138034289</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02955658534979206</v>
+        <v>0.7718465030101016</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06797152605624841</v>
+        <v>0.2335952760227012</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04876413044006785</v>
+        <v>0.5027206554115978</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2971315632638399</v>
+        <v>0.4404905813426849</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1520217659341273</v>
+        <v>0.4610905399136622</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001359757086047</v>
+        <v>1.012508988937269</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1584936472383816</v>
+        <v>0.4807201187867876</v>
       </c>
       <c r="P2" t="n">
-        <v>177.5349262858101</v>
+        <v>173.0966434252968</v>
       </c>
       <c r="Q2" t="n">
-        <v>281.1393713996071</v>
+        <v>276.7010885390939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_1</t>
+          <t>model_28_7_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9964421325659808</v>
+        <v>0.9679212225488818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7303944136680605</v>
+        <v>0.77816322408894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9964992655937344</v>
+        <v>0.9002391060617091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.941575575977641</v>
+        <v>0.8657571795400891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9930407167363589</v>
+        <v>0.9113945270449254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02379147591375989</v>
+        <v>0.2145109325248158</v>
       </c>
       <c r="H3" t="n">
-        <v>1.802853797221256</v>
+        <v>1.483423541981688</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03300797364304983</v>
+        <v>0.7208787690332796</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07765284289621455</v>
+        <v>0.2206116539856119</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05533043697154276</v>
+        <v>0.4707452115094458</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3190892029983143</v>
+        <v>0.4492802176182361</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1542448570091071</v>
+        <v>0.463153249502598</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001399816695352</v>
+        <v>1.012621158341424</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1608113799028562</v>
+        <v>0.4828706421933219</v>
       </c>
       <c r="P3" t="n">
-        <v>177.4768558346831</v>
+        <v>173.0787891488624</v>
       </c>
       <c r="Q3" t="n">
-        <v>281.0813009484801</v>
+        <v>276.6832342626595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_2</t>
+          <t>model_28_7_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9962966406113239</v>
+        <v>0.9682720573597478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7296859414457069</v>
+        <v>0.7780684969535725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.996153191800677</v>
+        <v>0.8867044198967309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9340384272359734</v>
+        <v>0.8506447598957445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9922054960822693</v>
+        <v>0.8998528799311032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02476438128447869</v>
+        <v>0.2121648985291095</v>
       </c>
       <c r="H4" t="n">
-        <v>1.807591354234349</v>
+        <v>1.484056982772068</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0362710588457843</v>
+        <v>0.8186812998315363</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08767058867489992</v>
+        <v>0.2454470670232807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06197093743800255</v>
+        <v>0.5320639419508307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3392738609207392</v>
+        <v>0.432656331394175</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1573670273102936</v>
+        <v>0.4606136108812999</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00145705943161</v>
+        <v>1.012483124973214</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1640664674575477</v>
+        <v>0.4802228858981384</v>
       </c>
       <c r="P4" t="n">
-        <v>177.3966977934389</v>
+        <v>173.1007829668147</v>
       </c>
       <c r="Q4" t="n">
-        <v>281.001142907236</v>
+        <v>276.7052280806117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_3</t>
+          <t>model_28_7_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9961211450340524</v>
+        <v>0.9673417254549055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7290028804141054</v>
+        <v>0.7779342622773662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9958284275981576</v>
+        <v>0.9078886347991516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9264311051858979</v>
+        <v>0.874406037773046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9913770707829371</v>
+        <v>0.917934244055959</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02593792101777653</v>
+        <v>0.2183860322605739</v>
       </c>
       <c r="H5" t="n">
-        <v>1.812158986497875</v>
+        <v>1.484954610669954</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03933321866510033</v>
+        <v>0.6656027721747982</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0977816029279347</v>
+        <v>0.2063983134633939</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0685574107965175</v>
+        <v>0.4360008513147676</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3577825872981714</v>
+        <v>0.4591704957527536</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1610525411714342</v>
+        <v>0.4673179134813621</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001526106871848</v>
+        <v>1.01284915719807</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1679088812738226</v>
+        <v>0.4872126045397049</v>
       </c>
       <c r="P5" t="n">
-        <v>177.3040984982246</v>
+        <v>173.0429819840149</v>
       </c>
       <c r="Q5" t="n">
-        <v>280.9085436120217</v>
+        <v>276.6474270978119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_4</t>
+          <t>model_28_7_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9959264868059068</v>
+        <v>0.9681768135850097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7283506063401077</v>
+        <v>0.7778455207858523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9955256246014907</v>
+        <v>0.8807650904360501</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9188960484614213</v>
+        <v>0.8440643218443622</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9905676995657149</v>
+        <v>0.8947960005082684</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02723960148570467</v>
+        <v>0.21280179408934</v>
       </c>
       <c r="H6" t="n">
-        <v>1.816520746234143</v>
+        <v>1.485548025432324</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04218830910415963</v>
+        <v>0.8615992844392829</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1077965681728796</v>
+        <v>0.2562612119994648</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07499239288081663</v>
+        <v>0.5589302482193739</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3747158246866617</v>
+        <v>0.4256576020519078</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1650442409952697</v>
+        <v>0.4613044483736744</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001602693715709</v>
+        <v>1.012520597933767</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1720705160231165</v>
+        <v>0.4809431337727941</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2061668551087</v>
+        <v>173.0947881813585</v>
       </c>
       <c r="Q6" t="n">
-        <v>280.8106119689058</v>
+        <v>276.6992332951555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_5</t>
+          <t>model_28_7_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9957210787350795</v>
+        <v>0.9679660658435442</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7277325813097915</v>
+        <v>0.7775528352661134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9952446920898265</v>
+        <v>0.8753341865023374</v>
       </c>
       <c r="E7" t="n">
-        <v>0.911541635016944</v>
+        <v>0.8380644426464614</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9897863809502807</v>
+        <v>0.8901747303625641</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0286131662011439</v>
+        <v>0.2142110652069238</v>
       </c>
       <c r="H7" t="n">
-        <v>1.820653482457612</v>
+        <v>1.487505214850511</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04483718555816725</v>
+        <v>0.9008433528103474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1175714375251088</v>
+        <v>0.2661212795176234</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08120434011277321</v>
+        <v>0.5834822394184368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3901775774534766</v>
+        <v>0.419397915158871</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1691542674635905</v>
+        <v>0.4628294126424159</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00168351000587</v>
+        <v>1.01260351507795</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1763555148271214</v>
+        <v>0.4825330189275672</v>
       </c>
       <c r="P7" t="n">
-        <v>177.1077766208092</v>
+        <v>173.0815869280142</v>
       </c>
       <c r="Q7" t="n">
-        <v>280.7122217346063</v>
+        <v>276.6860320418112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_6</t>
+          <t>model_28_7_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9955113487526399</v>
+        <v>0.9663717506203857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7271508151082545</v>
+        <v>0.7774259723629684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9949850891967114</v>
+        <v>0.9161482487933218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9044466759790882</v>
+        <v>0.8838645637692165</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9890394169522475</v>
+        <v>0.9250141333755179</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03001563155943545</v>
+        <v>0.2248722584453315</v>
       </c>
       <c r="H8" t="n">
-        <v>1.824543755726076</v>
+        <v>1.488353547667991</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04728494778722023</v>
+        <v>0.6059182591982957</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1270014618469719</v>
+        <v>0.1908543830160727</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08714314772376877</v>
+        <v>0.3983866511525605</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4042764826377959</v>
+        <v>0.4703348976299149</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1732501993056154</v>
+        <v>0.4742069784865375</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001766026720273</v>
+        <v>1.01323078664116</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1806258189674091</v>
+        <v>0.4943949513044811</v>
       </c>
       <c r="P8" t="n">
-        <v>177.0120739620785</v>
+        <v>172.9844455564924</v>
       </c>
       <c r="Q8" t="n">
-        <v>280.6165190758755</v>
+        <v>276.5888906702895</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_7</t>
+          <t>model_28_7_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.995302194892786</v>
+        <v>0.9676750805264106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7266062348173148</v>
+        <v>0.7772153214972579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.994746088622541</v>
+        <v>0.8703780121320294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8976670523951338</v>
+        <v>0.8325966621097961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9883310277243068</v>
+        <v>0.885958570542894</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03141424438334291</v>
+        <v>0.2161568853624607</v>
       </c>
       <c r="H9" t="n">
-        <v>1.828185366639153</v>
+        <v>1.489762170976956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04953845340557581</v>
+        <v>0.9366569941896237</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1360123687385624</v>
+        <v>0.2751069079757523</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09277526299240149</v>
+        <v>0.6058819510826881</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4171115296729234</v>
+        <v>0.4137871767283901</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1772406397622817</v>
+        <v>0.4649267526852598</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001848316763494</v>
+        <v>1.012718001104363</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1847861407356662</v>
+        <v>0.4847196470781273</v>
       </c>
       <c r="P9" t="n">
-        <v>176.9209876923022</v>
+        <v>173.063501627638</v>
       </c>
       <c r="Q9" t="n">
-        <v>280.5254328060992</v>
+        <v>276.6679467414351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_8</t>
+          <t>model_28_7_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9950972689622345</v>
+        <v>0.9673309155251542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.726098922564097</v>
+        <v>0.7768517725571877</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9945266809013458</v>
+        <v>0.865861593020248</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8912408547754178</v>
+        <v>0.8276155294240726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9876637677805944</v>
+        <v>0.8821167063294573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03278458502453852</v>
+        <v>0.2184583183105964</v>
       </c>
       <c r="H10" t="n">
-        <v>1.831577766012378</v>
+        <v>1.492193224413194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05160722053778913</v>
+        <v>0.969292935200269</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1445535314891418</v>
+        <v>0.2832927902207356</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09808037601346548</v>
+        <v>0.6262930963700882</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4287799921178854</v>
+        <v>0.4087558532434211</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1810651402797858</v>
+        <v>0.4673952484895374</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001928943359121</v>
+        <v>1.012853410285185</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1887734581580079</v>
+        <v>0.4872932318592837</v>
       </c>
       <c r="P10" t="n">
-        <v>176.8355936856521</v>
+        <v>173.0423200910492</v>
       </c>
       <c r="Q10" t="n">
-        <v>280.4400387994492</v>
+        <v>276.6467652048463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_9</t>
+          <t>model_28_7_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9948991287392488</v>
+        <v>0.9648879308398415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7256282342286891</v>
+        <v>0.7765369183114695</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9943257602200338</v>
+        <v>0.9250151124521576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8851882612484134</v>
+        <v>0.8941888556577814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9870387202963279</v>
+        <v>0.932640955019349</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03410954960799582</v>
+        <v>0.2347945681501924</v>
       </c>
       <c r="H11" t="n">
-        <v>1.834725261078571</v>
+        <v>1.494298656204082</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05350167575302006</v>
+        <v>0.5418457202781716</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1525981310231868</v>
+        <v>0.1738876722306217</v>
       </c>
       <c r="K11" t="n">
-        <v>0.103049874900386</v>
+        <v>0.3578666962543967</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4393789516212431</v>
+        <v>0.4829862364303993</v>
       </c>
       <c r="M11" t="n">
-        <v>0.184687708329482</v>
+        <v>0.4845560526401382</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002006900168164</v>
+        <v>1.013814584587603</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1925502464293293</v>
+        <v>0.5051846069703375</v>
       </c>
       <c r="P11" t="n">
-        <v>176.7563557734865</v>
+        <v>172.8980886504775</v>
       </c>
       <c r="Q11" t="n">
-        <v>280.3608008872836</v>
+        <v>276.5025337642746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_10</t>
+          <t>model_28_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9947096354113417</v>
+        <v>0.9669545037949884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7251930803150992</v>
+        <v>0.7764761833642712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9941421515693215</v>
+        <v>0.8617517469499276</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8795213121573776</v>
+        <v>0.8230817062366945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.98645616197869</v>
+        <v>0.8786206052290705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0353766923642473</v>
+        <v>0.2209753852834314</v>
       </c>
       <c r="H12" t="n">
-        <v>1.837635137302446</v>
+        <v>1.494704791075656</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05523289806240197</v>
+        <v>0.9989909527212577</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1601301643265642</v>
+        <v>0.2907435740229464</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1076815596666486</v>
+        <v>0.644867263372102</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4489967132180616</v>
+        <v>0.404240286882675</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1880869276803875</v>
+        <v>0.470080190269098</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002081454920128</v>
+        <v>1.013001506703611</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1960941775853569</v>
+        <v>0.4900924771689959</v>
       </c>
       <c r="P12" t="n">
-        <v>176.6834041669553</v>
+        <v>173.0194079249509</v>
       </c>
       <c r="Q12" t="n">
-        <v>280.2878492807523</v>
+        <v>276.623853038748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_11</t>
+          <t>model_28_7_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9945299263890058</v>
+        <v>0.9665616555307273</v>
       </c>
       <c r="C13" t="n">
-        <v>0.724791961180319</v>
+        <v>0.776098959148771</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9939746918474588</v>
+        <v>0.8580164456226054</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8742390094028302</v>
+        <v>0.8189580421071723</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9859153401182935</v>
+        <v>0.8754425999581031</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03657840742409088</v>
+        <v>0.2236023634354453</v>
       </c>
       <c r="H13" t="n">
-        <v>1.840317422803705</v>
+        <v>1.497227291141663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05681185420246967</v>
+        <v>1.025982485339981</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1671509579893676</v>
+        <v>0.2975203115868499</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1119814147991211</v>
+        <v>0.661751443474816</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4577165195604341</v>
+        <v>0.4001837002224674</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1912548232701358</v>
+        <v>0.4728661157615814</v>
       </c>
       <c r="N13" t="n">
-        <v>1.002152160109244</v>
+        <v>1.013156069955124</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1993969370488088</v>
+        <v>0.4929970052773551</v>
       </c>
       <c r="P13" t="n">
-        <v>176.6165943475215</v>
+        <v>172.9957719356622</v>
       </c>
       <c r="Q13" t="n">
-        <v>280.2210394613186</v>
+        <v>276.6002170494592</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_12</t>
+          <t>model_28_7_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9943607668195049</v>
+        <v>0.9661641679249566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7244232364048091</v>
+        <v>0.7757277631988775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9938222020741365</v>
+        <v>0.85462502799507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8693374584857687</v>
+        <v>0.8152093461930598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9854152107880922</v>
+        <v>0.8725564659313946</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03770957824425156</v>
+        <v>0.2262603648854957</v>
       </c>
       <c r="H14" t="n">
-        <v>1.842783087075361</v>
+        <v>1.499709480167802</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05824966062664401</v>
+        <v>1.050489091767623</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1736656882529422</v>
+        <v>0.3036808347572374</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1159577401380958</v>
+        <v>0.6770849632624303</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4656111806494181</v>
+        <v>0.3965400105785482</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1941895420568563</v>
+        <v>0.4756683349619729</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002218714693965</v>
+        <v>1.013312458521328</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2024565928899854</v>
+        <v>0.4959185207505007</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5556823039258</v>
+        <v>172.9721377716056</v>
       </c>
       <c r="Q14" t="n">
-        <v>280.1601274177229</v>
+        <v>276.5765828854027</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_13</t>
+          <t>model_28_7_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.994202386955522</v>
+        <v>0.9657707557955875</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7240850912683459</v>
+        <v>0.7753679144625372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.99368352180249</v>
+        <v>0.8515487173661379</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8648028698331194</v>
+        <v>0.8118028139459181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9849539583544336</v>
+        <v>0.8699374818342502</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03876866512397788</v>
+        <v>0.228891113606084</v>
       </c>
       <c r="H15" t="n">
-        <v>1.845044265159906</v>
+        <v>1.50211579032466</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05955725903888764</v>
+        <v>1.072718714336166</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1796926830609418</v>
+        <v>0.3092790537966062</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1196249710499147</v>
+        <v>0.6909991627089496</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4727602091483408</v>
+        <v>0.393263165833174</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1968976006049283</v>
+        <v>0.4784256615254704</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002281028083073</v>
+        <v>1.013467243621408</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2052799390969028</v>
+        <v>0.4987932324142592</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5002859170697</v>
+        <v>172.9490177498875</v>
       </c>
       <c r="Q15" t="n">
-        <v>280.1047310308668</v>
+        <v>276.5534628636845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_14</t>
+          <t>model_28_7_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9940549172344351</v>
+        <v>0.962731808542814</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7237756055793103</v>
+        <v>0.7751307236751668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9935575582882872</v>
+        <v>0.9344595073214522</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8606232292085518</v>
+        <v>0.9054256346795432</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9845299155077437</v>
+        <v>0.9408015882957158</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0397547958279218</v>
+        <v>0.249212567878445</v>
       </c>
       <c r="H16" t="n">
-        <v>1.847113797387538</v>
+        <v>1.50370188621197</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06074495278376326</v>
+        <v>0.4735999029155815</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1852479107283635</v>
+        <v>0.1554214004630228</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1229963636363589</v>
+        <v>0.3145106945356079</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4792272927560474</v>
+        <v>0.4973801866450745</v>
       </c>
       <c r="M16" t="n">
-        <v>0.199386047224779</v>
+        <v>0.4992119468506788</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002339048956943</v>
+        <v>1.014662894999549</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2078743240411551</v>
+        <v>0.5204644329393042</v>
       </c>
       <c r="P16" t="n">
-        <v>176.4500495908007</v>
+        <v>172.778898120883</v>
       </c>
       <c r="Q16" t="n">
-        <v>280.0544947045977</v>
+        <v>276.38334323468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_15</t>
+          <t>model_28_7_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9939181347015964</v>
+        <v>0.9653877561798396</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7234929085341888</v>
+        <v>0.7750231244607273</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9934432209604731</v>
+        <v>0.8487601781589125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8567798967637223</v>
+        <v>0.8087111060707103</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9841408514086512</v>
+        <v>0.8675629870174332</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04066946125483929</v>
+        <v>0.2314522338001404</v>
       </c>
       <c r="H17" t="n">
-        <v>1.849004193829965</v>
+        <v>1.504421402654375</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0618230247152268</v>
+        <v>1.092868881718879</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1903561457778361</v>
+        <v>0.3143598974920323</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1260896543959403</v>
+        <v>0.7036144338371493</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4850756129307517</v>
+        <v>0.3903187319206377</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2016667083453273</v>
+        <v>0.4810948282824711</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002392865035437</v>
+        <v>1.013617931994817</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2102520776272245</v>
+        <v>0.5015760311260423</v>
       </c>
       <c r="P17" t="n">
-        <v>176.4045556117935</v>
+        <v>172.9267635204445</v>
       </c>
       <c r="Q17" t="n">
-        <v>280.0090007255906</v>
+        <v>276.5312086342415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_16</t>
+          <t>model_28_7_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9937917199952657</v>
+        <v>0.9650196000154755</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7232350312770661</v>
+        <v>0.7746958676866949</v>
       </c>
       <c r="D18" t="n">
-        <v>0.993339539207251</v>
+        <v>0.8462347106199759</v>
       </c>
       <c r="E18" t="n">
-        <v>0.853253958246966</v>
+        <v>0.8059060107844682</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9837846634906328</v>
+        <v>0.8654116747515345</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04151479697815885</v>
+        <v>0.2339140957664471</v>
       </c>
       <c r="H18" t="n">
-        <v>1.85072862023576</v>
+        <v>1.506609770209208</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06280062660684514</v>
+        <v>1.111118075955534</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1950425274458625</v>
+        <v>0.3189697284577778</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1289215599818075</v>
+        <v>0.7150439755331439</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4903623857463545</v>
+        <v>0.3876689648324795</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2037518023924177</v>
+        <v>0.4836466641738028</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002442601969076</v>
+        <v>1.01376278032178</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2124259384446394</v>
+        <v>0.5042365039542965</v>
       </c>
       <c r="P18" t="n">
-        <v>176.3634107232101</v>
+        <v>172.9056026862716</v>
       </c>
       <c r="Q18" t="n">
-        <v>279.9678558370072</v>
+        <v>276.5100478000686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_17</t>
+          <t>model_28_7_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9936753248713539</v>
+        <v>0.9646691650498228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7230002019129433</v>
+        <v>0.7743875646075092</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9932456773121751</v>
+        <v>0.8439486055407639</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8500278250169659</v>
+        <v>0.803362415099147</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9834593390012722</v>
+        <v>0.8634636199755131</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04229313170770763</v>
+        <v>0.2362574559953708</v>
       </c>
       <c r="H19" t="n">
-        <v>1.852298925274938</v>
+        <v>1.508671394319328</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06368563832130328</v>
+        <v>1.127637621343754</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1993304330788831</v>
+        <v>0.3231498168177133</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1315080829715972</v>
+        <v>0.7253936461233015</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4951357008332571</v>
+        <v>0.385288218714341</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2056529399442362</v>
+        <v>0.4860632222204955</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002488396771926</v>
+        <v>1.01390065637384</v>
       </c>
       <c r="O19" t="n">
-        <v>0.214408011357936</v>
+        <v>0.5067559398800017</v>
       </c>
       <c r="P19" t="n">
-        <v>176.3262611541793</v>
+        <v>172.885666306675</v>
       </c>
       <c r="Q19" t="n">
-        <v>279.9307062679764</v>
+        <v>276.4901114204721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_18</t>
+          <t>model_28_7_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9935683637112649</v>
+        <v>0.9643383119631471</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7227865766668988</v>
+        <v>0.7740989105596129</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9931606921998311</v>
+        <v>0.841880687800921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8470793646747353</v>
+        <v>0.8010570484316402</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9831625017364419</v>
+        <v>0.8617007490212037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.043008381477734</v>
+        <v>0.2384698721094097</v>
       </c>
       <c r="H20" t="n">
-        <v>1.853727438278892</v>
+        <v>1.510601625266741</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06448695199516687</v>
+        <v>1.142580530693406</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2032492792048343</v>
+        <v>0.3269384049285676</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1338681156000006</v>
+        <v>0.7347594678109868</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4994457638720206</v>
+        <v>0.383143733796565</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2073846220859541</v>
+        <v>0.488333771215354</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002530479851306</v>
+        <v>1.014030828080073</v>
       </c>
       <c r="O20" t="n">
-        <v>0.216213414793503</v>
+        <v>0.5091231508462557</v>
       </c>
       <c r="P20" t="n">
-        <v>176.2927205283916</v>
+        <v>172.867024598051</v>
       </c>
       <c r="Q20" t="n">
-        <v>279.8971656421887</v>
+        <v>276.471469711848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_19</t>
+          <t>model_28_7_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9934703371593609</v>
+        <v>0.9640279413792318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7225924681128512</v>
+        <v>0.7738300154991753</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9930838426342716</v>
+        <v>0.8400106989194329</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8443898158172251</v>
+        <v>0.7989688428856884</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9828921229210674</v>
+        <v>0.860106040562425</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04366388548168584</v>
+        <v>0.2405453216331767</v>
       </c>
       <c r="H21" t="n">
-        <v>1.855025443073597</v>
+        <v>1.512399727774035</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06521155664667141</v>
+        <v>1.156093193118292</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2068240019066621</v>
+        <v>0.3303701153006835</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1360177878343066</v>
+        <v>0.7432318718926662</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5033371047907722</v>
+        <v>0.3812182484576322</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2089590521649776</v>
+        <v>0.4904541993226041</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002569047675006</v>
+        <v>1.014152941096696</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2178548716205101</v>
+        <v>0.5113338499679227</v>
       </c>
       <c r="P21" t="n">
-        <v>176.2624678754731</v>
+        <v>172.8496935193023</v>
       </c>
       <c r="Q21" t="n">
-        <v>279.8669129892702</v>
+        <v>276.4541386330993</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_20</t>
+          <t>model_28_7_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9933806816657637</v>
+        <v>0.9637385706012143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7224162922118729</v>
+        <v>0.7735807235614852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9930143554050691</v>
+        <v>0.8383211949317485</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8419401930146349</v>
+        <v>0.7970802878535022</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9826461734664546</v>
+        <v>0.8586650161127413</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04426341218019649</v>
+        <v>0.2424803453582101</v>
       </c>
       <c r="H22" t="n">
-        <v>1.856203532134653</v>
+        <v>1.514066744109252</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06586674277731383</v>
+        <v>1.16830165985148</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2100798350248753</v>
+        <v>0.3334737244759531</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1379732321352653</v>
+        <v>0.7508877800068361</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5068506508931645</v>
+        <v>0.3794836589775876</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2103887168557204</v>
+        <v>0.4924229334202562</v>
       </c>
       <c r="N22" t="n">
-        <v>1.002604321967568</v>
+        <v>1.014266791894604</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2193454000969517</v>
+        <v>0.5133863971519533</v>
       </c>
       <c r="P22" t="n">
-        <v>176.2351937066726</v>
+        <v>172.8336692439171</v>
       </c>
       <c r="Q22" t="n">
-        <v>279.8396388204697</v>
+        <v>276.4381143577142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_21</t>
+          <t>model_28_7_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9932988107143749</v>
+        <v>0.9634697364319004</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7222565033251804</v>
+        <v>0.7733503546114829</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9929515097880084</v>
+        <v>0.8367943878452102</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8397116493378296</v>
+        <v>0.7953703488950298</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9824226120450326</v>
+        <v>0.8573621970921945</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04481088360911496</v>
+        <v>0.2442780406862793</v>
       </c>
       <c r="H23" t="n">
-        <v>1.857272041155726</v>
+        <v>1.515607222338669</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06645930600284994</v>
+        <v>1.17933446809572</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2130418283165177</v>
+        <v>0.3362837999835344</v>
       </c>
       <c r="K23" t="n">
-        <v>0.139750678269968</v>
+        <v>0.7578094271120526</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5100162605352883</v>
+        <v>0.3779209730357946</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2116858134337655</v>
+        <v>0.4942449197374509</v>
       </c>
       <c r="N23" t="n">
-        <v>1.002636533489426</v>
+        <v>1.014372562715318</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2206977167616843</v>
+        <v>0.5152859491987025</v>
       </c>
       <c r="P23" t="n">
-        <v>176.2106084627247</v>
+        <v>172.818896382859</v>
       </c>
       <c r="Q23" t="n">
-        <v>279.8150535765217</v>
+        <v>276.423341496656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_22</t>
+          <t>model_28_7_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9932241960767331</v>
+        <v>0.9632211732490149</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7221117558757186</v>
+        <v>0.7731381508237219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9928947763416397</v>
+        <v>0.8354160544640707</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8376868685610779</v>
+        <v>0.7938244658786071</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9822197274683206</v>
+        <v>0.8561858293128789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04530983203459421</v>
+        <v>0.2459401838347625</v>
       </c>
       <c r="H24" t="n">
-        <v>1.858239968016778</v>
+        <v>1.517026230044535</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0669942383584905</v>
+        <v>1.18929439559725</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2157329970560883</v>
+        <v>0.3388242696187289</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1413637312035807</v>
+        <v>0.7640592611304047</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5128744352064709</v>
+        <v>0.3765196762758991</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2128610627489072</v>
+        <v>0.4959235665248855</v>
       </c>
       <c r="N24" t="n">
-        <v>1.002665890068171</v>
+        <v>1.014470358065961</v>
       </c>
       <c r="O24" t="n">
-        <v>0.221922998873273</v>
+        <v>0.5170360594551562</v>
       </c>
       <c r="P24" t="n">
-        <v>176.1884624546745</v>
+        <v>172.80533385552</v>
       </c>
       <c r="Q24" t="n">
-        <v>279.7929075684715</v>
+        <v>276.4097789693171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_23</t>
+          <t>model_28_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9931562734631595</v>
+        <v>0.9596985887185649</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7219806654269625</v>
+        <v>0.77302229844506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9928435986071693</v>
+        <v>0.9444077371058222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8358484955935619</v>
+        <v>0.9175877365258218</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9820357458203124</v>
+        <v>0.949447986884114</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04576403086431582</v>
+        <v>0.2694957228098918</v>
       </c>
       <c r="H25" t="n">
-        <v>1.859116570451226</v>
+        <v>1.517800935434099</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06747678662250207</v>
+        <v>0.4017133413792262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2181764081742968</v>
+        <v>0.1354344738247357</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1428264946223687</v>
+        <v>0.2685739076019809</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5154519661297319</v>
+        <v>0.5138153662589503</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2139252927176117</v>
+        <v>0.5191297745360902</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002692613719413</v>
+        <v>1.015856292963188</v>
       </c>
       <c r="O25" t="n">
-        <v>0.223032535315005</v>
+        <v>0.5412302037848709</v>
       </c>
       <c r="P25" t="n">
-        <v>176.1685136974404</v>
+        <v>172.6224055191886</v>
       </c>
       <c r="Q25" t="n">
-        <v>279.7729588112375</v>
+        <v>276.2268506329857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_28_7_24</t>
+          <t>model_28_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9930945258079606</v>
+        <v>0.9555229459834114</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7218619938850611</v>
+        <v>0.7699582524539282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9927973871924446</v>
+        <v>0.9547201276164454</v>
       </c>
       <c r="E26" t="n">
-        <v>0.834181550506966</v>
+        <v>0.9306280639015891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9818690021500018</v>
+        <v>0.958477855776763</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04617693771895207</v>
+        <v>0.2974182650069309</v>
       </c>
       <c r="H26" t="n">
-        <v>1.859910127598353</v>
+        <v>1.538290225085431</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06791250809754781</v>
+        <v>0.3271953305273281</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2203919717351205</v>
+        <v>0.1140042909588967</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1441522058761012</v>
+        <v>0.2205998107431124</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5177746154632696</v>
+        <v>0.5326063006202633</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2148881981844328</v>
+        <v>0.5453606742394714</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002716907878835</v>
+        <v>1.017499168793412</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2240364336610378</v>
+        <v>0.5685778071940731</v>
       </c>
       <c r="P26" t="n">
-        <v>176.150549578201</v>
+        <v>172.4252316624335</v>
       </c>
       <c r="Q26" t="n">
-        <v>279.7549946919981</v>
+        <v>276.0296767762306</v>
       </c>
     </row>
   </sheetData>
